--- a/medicine/Psychotrope/Sanka_(café)/Sanka_(café).xlsx
+++ b/medicine/Psychotrope/Sanka_(café)/Sanka_(café).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sanka_(caf%C3%A9)</t>
+          <t>Sanka_(café)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sanka est une marque de café décaféiné instantané, vendue dans le monde entier, et est l'une des premières variétés décaféinées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sanka_(caf%C3%A9)</t>
+          <t>Sanka_(café)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le café décaféiné est développé en 1903 par une équipe de chercheurs dirigée par Ludwig Roselius à Brême, en Allemagne[1]. Il est vendu pour la première fois en Allemagne et dans de nombreux autres pays européens en 1905-1906 sous le nom de Kaffee HAG (abréviation de Kaffee Handels -Aktien-Gesellschaft, ou Coffee Trading Public Company)[2]. En France, le nom de la marque est Sanka, dérivé des mots « sans caféine »[3]. La marque arrive aux États-Unis en 1909–1910, où elle est commercialisée pour la première fois sous le nom de « Dekafa » ou « Dekofa » par un agent de vente américain.
-En 1914, Roselius fonde à New York sa propre société, Kaffee Hag Corporation[2]. Lorsque Kaffee Hag est confisqué par le dépositaire de la propriété étrangère pendant la Première Guerre mondiale et vendu à une entreprise américaine, Roselius perd non seulement sa société, mais également les droits de marque américains sur le nom. Pour rétablir son produit, il commence à utiliser le nom de marque Sanka en Amérique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le café décaféiné est développé en 1903 par une équipe de chercheurs dirigée par Ludwig Roselius à Brême, en Allemagne. Il est vendu pour la première fois en Allemagne et dans de nombreux autres pays européens en 1905-1906 sous le nom de Kaffee HAG (abréviation de Kaffee Handels -Aktien-Gesellschaft, ou Coffee Trading Public Company). En France, le nom de la marque est Sanka, dérivé des mots « sans caféine ». La marque arrive aux États-Unis en 1909–1910, où elle est commercialisée pour la première fois sous le nom de « Dekafa » ou « Dekofa » par un agent de vente américain.
+En 1914, Roselius fonde à New York sa propre société, Kaffee Hag Corporation. Lorsque Kaffee Hag est confisqué par le dépositaire de la propriété étrangère pendant la Première Guerre mondiale et vendu à une entreprise américaine, Roselius perd non seulement sa société, mais également les droits de marque américains sur le nom. Pour rétablir son produit, il commence à utiliser le nom de marque Sanka en Amérique.
 En Europe, la société Hag utilise la marque Sanka dans de nombreux pays (entre autres Pays-Bas, Belgique, Allemagne, Suisse) comme alternative moins chère à la marque premium Coffee Hag. La marque disparait dans ces pays après la Seconde Guerre mondiale, mais elle continue à exister jusqu'aux années 1970 en tant que marque haut de gamme en France. Commercialisé pour la première fois aux États-Unis en 1923, le Sanka n'est initialement vendu que dans deux cafés « Sanka » à New York, mais il est rapidement commercialisé à plus grande échelle.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sanka_(caf%C3%A9)</t>
+          <t>Sanka_(café)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Albums Sanka</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la marque a publié des albums de reproductions d'images héraldiques dans le même style que les albums de Coffee Hag. Cependant, seuls six albums sur les 42 prévus ont été publiés[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la marque a publié des albums de reproductions d'images héraldiques dans le même style que les albums de Coffee Hag. Cependant, seuls six albums sur les 42 prévus ont été publiés.
 </t>
         </is>
       </c>
